--- a/StructureDefinition-ext-R5-Provenance.agent.xlsx
+++ b/StructureDefinition-ext-R5-Provenance.agent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -482,6 +482,7 @@
   </si>
   <si>
     <t>Element `Provenance.agent.who` is part of an existing definition because parent element `Provenance.agent` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.agent.who` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Provenance.agent.who` is mapped to FHIR R4 element `Provenance.agent.who`.</t>
   </si>
   <si>
@@ -517,6 +518,7 @@
   </si>
   <si>
     <t>Element `Provenance.agent.onBehalfOf` is part of an existing definition because parent element `Provenance.agent` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.agent.onBehalfOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Provenance.agent.onBehalfOf` is mapped to FHIR R4 element `Provenance.agent.onBehalfOf`.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-Provenance.agent.xlsx
+++ b/StructureDefinition-ext-R5-Provenance.agent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `Provenance.agent` 1..* `BackboneElement`
 *  R4: `Provenance.agent` 1..* `BackboneElement`
 Following are the generation technical comments:
-Element `Provenance.agent` is mapped to FHIR R4 element `Provenance.agent`.</t>
+Element `Provenance.agent` has is mapped to FHIR R4 element `Provenance.agent`, but has no comparisons.
+Note available implied context: `Provenance.entity.agent` because `Provenance.entity.agent` is defined as a content reference to `Provenance.agent`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:Provenance.agent</t>
   </si>
   <si>
     <t>ID</t>
@@ -346,8 +347,8 @@
     <t>For example: assembler, author, prescriber, signer, investigator, etc.</t>
   </si>
   <si>
-    <t>Functional roles reflect functional aspects of relationships between entities. Functional roles are bound to the realization/performance of acts, where actions might be concatenated to an activity or even to a process. This element will hold the functional role that the agent played in the activity that is the focus of this Provenance. Where an agent played multiple functional roles, they will be listed as multiple .agent elements representing each functional participation. See ISO 21298:2018 - Health Informatics - Functional and structural roles, and ISO 22600-2:2014 - Health Informatics - Privilege Management and Access Control - Part 2: formal models. Element `Provenance.agent.type` is part of an existing definition because parent element `Provenance.agent` requires a component extension (e.g., if this element is used as a content reference).
-Element `Provenance.agent.type` is mapped to FHIR R4 element `Provenance.agent.type`.</t>
+    <t>Functional roles reflect functional aspects of relationships between entities. Functional roles are bound to the realization/performance of acts, where actions might be concatenated to an activity or even to a process. This element will hold the functional role that the agent played in the activity that is the focus of this Provenance. Where an agent played multiple functional roles, they will be listed as multiple .agent elements representing each functional participation. See ISO 21298:2018 - Health Informatics - Functional and structural roles, and ISO 22600-2:2014 - Health Informatics - Privilege Management and Access Control - Part 2: formal models. Element `Provenance.agent.type` is part of an existing definition because parent element `Provenance.agent` requires a cross-version extension.
+Element `Provenance.agent.type` has is mapped to FHIR R4 element `Provenance.agent.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -444,8 +445,8 @@
     <t>For example: Chief-of-Radiology, Nurse, Physician, Medical-Student, etc.</t>
   </si>
   <si>
-    <t>Structural roles reflect the structural aspects of relationships between entities. Structural roles describe prerequisites, feasibilities, or competences for acts. Functional roles reflect functional aspects of relationships between entities. Functional roles are bound to the realization/performance of acts, where actions might be concatenated to an activity or even to a process. See ISO 21298:2018 - Health Informatics - Functional and structural roles, and ISO 22600-2:2014 - Health Informatics - Privilege Management and Access Control - Part 2: formal models.. Element `Provenance.agent.role` is part of an existing definition because parent element `Provenance.agent` requires a component extension (e.g., if this element is used as a content reference).
-Element `Provenance.agent.role` is mapped to FHIR R4 element `Provenance.agent.role`.</t>
+    <t>Structural roles reflect the structural aspects of relationships between entities. Structural roles describe prerequisites, feasibilities, or competences for acts. Functional roles reflect functional aspects of relationships between entities. Functional roles are bound to the realization/performance of acts, where actions might be concatenated to an activity or even to a process. See ISO 21298:2018 - Health Informatics - Functional and structural roles, and ISO 22600-2:2014 - Health Informatics - Privilege Management and Access Control - Part 2: formal models.. Element `Provenance.agent.role` is part of an existing definition because parent element `Provenance.agent` requires a cross-version extension.
+Element `Provenance.agent.role` has is mapped to FHIR R4 element `Provenance.agent.role`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:role.id</t>
@@ -481,9 +482,9 @@
     <t>Indicates who or what performed in the event.</t>
   </si>
   <si>
-    <t>Element `Provenance.agent.who` is part of an existing definition because parent element `Provenance.agent` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `Provenance.agent.who` is part of an existing definition because parent element `Provenance.agent` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.agent.who` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Provenance.agent.who` is mapped to FHIR R4 element `Provenance.agent.who`.</t>
+Element `Provenance.agent.who` has is mapped to FHIR R4 element `Provenance.agent.who`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:who.id</t>
@@ -517,9 +518,9 @@
     <t>The agent that delegated authority to perform the activity performed by the agent.who element.</t>
   </si>
   <si>
-    <t>Element `Provenance.agent.onBehalfOf` is part of an existing definition because parent element `Provenance.agent` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `Provenance.agent.onBehalfOf` is part of an existing definition because parent element `Provenance.agent` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Provenance.agent.onBehalfOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Provenance.agent.onBehalfOf` is mapped to FHIR R4 element `Provenance.agent.onBehalfOf`.</t>
+Element `Provenance.agent.onBehalfOf` has is mapped to FHIR R4 element `Provenance.agent.onBehalfOf`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:onBehalfOf.id</t>

--- a/StructureDefinition-ext-R5-Provenance.agent.xlsx
+++ b/StructureDefinition-ext-R5-Provenance.agent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="163">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -414,15 +414,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The type of participation that a provenance agent played with respect to the activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-participation-role-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -462,12 +453,6 @@
   </si>
   <si>
     <t>Extension.extension:role.value[x]</t>
-  </si>
-  <si>
-    <t>The role that a provenance agent played with respect to the activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-security-role-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:who</t>
@@ -502,7 +487,7 @@
     <t>Extension.extension:who.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
 </t>
   </si>
   <si>
@@ -895,8 +880,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.97265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.59375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1818,31 +1803,31 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>84</v>
@@ -1854,7 +1839,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>122</v>
@@ -1862,13 +1847,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1893,16 +1878,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1971,7 +1956,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2074,7 +2059,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2179,7 +2164,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2222,7 +2207,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2284,7 +2269,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>124</v>
@@ -2313,13 +2298,13 @@
         <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2345,31 +2330,31 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>84</v>
@@ -2381,7 +2366,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>122</v>
@@ -2389,13 +2374,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2420,14 +2405,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2496,7 +2481,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2599,7 +2584,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2704,7 +2689,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2747,7 +2732,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2809,7 +2794,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>124</v>
@@ -2835,13 +2820,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2892,7 +2877,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>84</v>
@@ -2904,7 +2889,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>122</v>
@@ -2912,13 +2897,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2943,14 +2928,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3019,7 +3004,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3122,7 +3107,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3227,7 +3212,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3270,7 +3255,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3332,7 +3317,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -3358,13 +3343,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3415,7 +3400,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>84</v>
@@ -3427,7 +3412,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>122</v>
@@ -3540,10 +3525,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3566,13 +3551,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3623,7 +3608,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>84</v>
@@ -3635,7 +3620,7 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>122</v>
